--- a/data/trans_dic/P32E$eventos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Estudios-trans_dic.xlsx
@@ -506,7 +506,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -806,7 +806,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Población que consumió alcohol en atracón (Binge drinking) más de una vez al mes el último año, al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
+          <t>Población que consumió alcohol en las últimas 2 semanas que, en el último año, ha consumido alcohol en exceso más de una vez al mes en una misma ocasión (Binge drinking), al menos, en conciertos o eventos (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_dic/P32E$eventos_2023-Estudios-trans_dic.xlsx
+++ b/data/trans_dic/P32E$eventos_2023-Estudios-trans_dic.xlsx
@@ -641,13 +641,13 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>0.05206212089155874</v>
+        <v>0.05093466886736508</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>0.1639983403963906</v>
+        <v>0.1965614090682345</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>0.04847158256900849</v>
+        <v>0.0528059761350168</v>
       </c>
     </row>
     <row r="10">
@@ -662,7 +662,7 @@
         </is>
       </c>
       <c r="C10" s="5" t="n">
-        <v>0.07566740079240557</v>
+        <v>0.07566740079240555</v>
       </c>
       <c r="D10" s="5" t="n">
         <v>0.1494203724569483</v>
@@ -682,10 +682,10 @@
         <v>0</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>0.02552730740069102</v>
+        <v>0.03838710853254902</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>0.04059086000047252</v>
+        <v>0.03868170005342871</v>
       </c>
     </row>
     <row r="12">
@@ -696,13 +696,13 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>0.2331897475936913</v>
+        <v>0.2458977950350091</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.3657688809191607</v>
+        <v>0.3916886067349259</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>0.2359375117737683</v>
+        <v>0.260335260375399</v>
       </c>
     </row>
     <row r="13">
@@ -734,13 +734,13 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>0</v>
+        <v>0.005805697287197836</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>0.02192943123848619</v>
+        <v>0.01721082860990463</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>0.01543741579602521</v>
+        <v>0.01400434052854127</v>
       </c>
     </row>
     <row r="15">
@@ -751,13 +751,13 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>0.04770591386436569</v>
+        <v>0.05586684892830913</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>0.180663455464306</v>
+        <v>0.1759893133532038</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>0.07129505126141138</v>
+        <v>0.07183202249637567</v>
       </c>
     </row>
     <row r="16">
@@ -975,13 +975,13 @@
         </is>
       </c>
       <c r="C11" s="6" t="n">
-        <v>5443</v>
+        <v>5325</v>
       </c>
       <c r="D11" s="6" t="n">
-        <v>4929</v>
+        <v>5908</v>
       </c>
       <c r="E11" s="6" t="n">
-        <v>6524</v>
+        <v>7108</v>
       </c>
     </row>
     <row r="12">
@@ -1033,10 +1033,10 @@
         <v>0</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>704</v>
+        <v>1059</v>
       </c>
       <c r="E14" s="6" t="n">
-        <v>2212</v>
+        <v>2108</v>
       </c>
     </row>
     <row r="15">
@@ -1047,13 +1047,13 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>6277</v>
+        <v>6619</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>10086</v>
+        <v>10801</v>
       </c>
       <c r="E15" s="6" t="n">
-        <v>12857</v>
+        <v>14187</v>
       </c>
     </row>
     <row r="16">
@@ -1102,13 +1102,13 @@
         </is>
       </c>
       <c r="C18" s="6" t="n">
-        <v>0</v>
+        <v>933</v>
       </c>
       <c r="D18" s="6" t="n">
-        <v>1392</v>
+        <v>1092</v>
       </c>
       <c r="E18" s="6" t="n">
-        <v>3459</v>
+        <v>3138</v>
       </c>
     </row>
     <row r="19">
@@ -1119,13 +1119,13 @@
         </is>
       </c>
       <c r="C19" s="6" t="n">
-        <v>7663</v>
+        <v>8974</v>
       </c>
       <c r="D19" s="6" t="n">
-        <v>11465</v>
+        <v>11169</v>
       </c>
       <c r="E19" s="6" t="n">
-        <v>15976</v>
+        <v>16097</v>
       </c>
     </row>
     <row r="20">
